--- a/CodeSystem-CBO.xlsx
+++ b/CodeSystem-CBO.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://saudeid.com.br/fhir/CodeSystem/CBO</t>
+    <t>http://saudeid-data.github.io/fhir/CodeSystem/CBO</t>
   </si>
   <si>
     <t>Version</t>

--- a/CodeSystem-CBO.xlsx
+++ b/CodeSystem-CBO.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.2</t>
+    <t>0.0.3</t>
   </si>
   <si>
     <t>Name</t>
